--- a/doc/ue_player.xlsx
+++ b/doc/ue_player.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43A2CD1-D2FD-4F9A-908D-E3A0F9D24E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,21 +265,22 @@
     <t>ULocalPlayer* UGameInstance::CreateLocalPlayer(int32 ControllerId, FString&amp; OutError, bool bSpawnPlayerController)</t>
   </si>
   <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会随着场景切换而销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NewPlayer = NewObject&lt;ULocalPlayer&gt;(GetEngine(), GetEngine()-&gt;LocalPlayerClass);</t>
-  </si>
-  <si>
-    <t>创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会随着场景切换而销毁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -699,11 +699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -756,12 +756,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -789,7 +789,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">

--- a/doc/ue_player.xlsx
+++ b/doc/ue_player.xlsx
@@ -703,7 +703,7 @@
   <dimension ref="A8:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_player.xlsx
+++ b/doc/ue_player.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58B7481-D7C0-49A3-B8B9-694E9A23E99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="player" sheetId="2" r:id="rId2"/>
+    <sheet name="整体游戏玩家构造流程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
   <si>
     <t>Pawn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,11 +278,295 @@
     <t>NewPlayer = NewObject&lt;ULocalPlayer&gt;(GetEngine(), GetEngine()-&gt;LocalPlayerClass);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>引擎启动的是否，初始化GameInstance里面localplayers个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于客户端默认都是1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Initialize the viewport client.</t>
+  </si>
+  <si>
+    <t>创建和初始化客户端的视野范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGameViewportClient* ViewportClient = NULL;</t>
+  </si>
+  <si>
+    <t>if(GIsClient)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>ViewportClient = NewObject&lt;UGameViewportClient&gt;(this, GameViewportClientClass);</t>
+  </si>
+  <si>
+    <t>ViewportClient-&gt;Init(*GameInstance-&gt;GetWorldContext(), GameInstance);</t>
+  </si>
+  <si>
+    <t>GameViewport = ViewportClient;</t>
+  </si>
+  <si>
+    <t>GameInstance-&gt;GetWorldContext()-&gt;GameViewport = ViewportClient;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>CreateGameViewport( ViewportClient );</t>
+  </si>
+  <si>
+    <t>创建Sview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString Error;</t>
+  </si>
+  <si>
+    <t>if(ViewportClient-&gt;SetupInitialLocalPlayer(Error) == NULL)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogEngine, Fatal,TEXT("%s"),*Error);</t>
+  </si>
+  <si>
+    <t>创建localplayers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据GetEngine()-&gt;LocalPlayerClass，可以配置的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>加载地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (WorldContext.OwningGameInstance != NULL)</t>
+  </si>
+  <si>
+    <t>for(auto It = WorldContext.OwningGameInstance-&gt;GetLocalPlayerIterator(); It; ++It)</t>
+  </si>
+  <si>
+    <t>FString Error2;</t>
+  </si>
+  <si>
+    <t>if(!(*It)-&gt;SpawnPlayActor(URL.ToString(1),Error2,WorldContext.World()))</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogEngine, Fatal, TEXT("Couldn't spawn player: %s"), *Error2);</t>
+  </si>
+  <si>
+    <t>每次加载场景的时候，都会根据gameinstance::localplayers个数，创建对应的player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据localplayers创建玩家对应的Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，这个是调用的LocalPlayer的接口，内部创建的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool ULocalPlayer::SpawnPlayActor(const FString&amp; URL,FString&amp; OutError, UWorld* InWorld)</t>
+  </si>
+  <si>
+    <t>LocalPlayer的创建接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其创建的是内部的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController = InWorld-&gt;SpawnPlayActor(this, ROLE_SimulatedProxy, PlayerURL, UniqueId, OutError, GEngine-&gt;GetGamePlayers(InWorld).Find(this));</t>
+  </si>
+  <si>
+    <t>APlayerController* UWorld::SpawnPlayActor(UPlayer* NewPlayer, ENetRole RemoteRole, const FURL&amp; InURL, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; Error, uint8 InNetPlayerIndex)</t>
+  </si>
+  <si>
+    <t>创建PlayerControllr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController* const NewPlayerController = GameMode-&gt;Login(NewPlayer, RemoteRole, *InURL.Portal, Options, UniqueId, Error);</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>将PlayerController和localplayer绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度GameMode的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMode-&gt;PostLogin(NewPlayerController);</t>
+  </si>
+  <si>
+    <t>返回NewPlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::PostLogin(APlayerController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>GameMode的PostLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandleStartingNewPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>void AGameModeBase::HandleStartingNewPlayer_Implementation(APlayerController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>调度到蓝图的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>调度下面的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::RestartPlayer(AController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>AActor* StartSpot = FindPlayerStart(NewPlayer);</t>
+  </si>
+  <si>
+    <t>先找到一个玩家进入点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartPlayerAtPlayerStart(NewPlayer, StartSpot);</t>
+  </si>
+  <si>
+    <t>调用下面的e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::RestartPlayerAtPlayerStart(AController* NewPlayer, AActor* StartSpot)</t>
+  </si>
+  <si>
+    <t>APawn* NewPawn = SpawnDefaultPawnFor(NewPlayer, StartSpot);</t>
+  </si>
+  <si>
+    <t>if (IsValid(NewPawn))</t>
+  </si>
+  <si>
+    <t>NewPlayer-&gt;SetPawn(NewPawn);</t>
+  </si>
+  <si>
+    <t>创建和绑定，这个时候playercontroller和玩家的pawn就绑定在一起了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建玩家Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会根据设置的PawnClass，然后创建他，也就会到我们的class类了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">controller和pawn绑定 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我们Pawn类的构造里面就可以设置很多东西，一般这个是蓝图类做的，有自己很多控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如人物的Mesh，头顶面板，人物信息，武器，挂件，骑乘等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AUE5_Test002Character::SetupPlayerInputComponent(class UInputComponent* PlayerInputComponent)</t>
+  </si>
+  <si>
+    <t>接下来会调用输入事件绑定函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这个里面需要绑定玩家鼠标键盘等回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要讲：进入游戏后，对应玩家对象的创建流程，涉及创建和事件绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的蓝图类可以再每个场景自己的GameMode构造里面设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMyGameModeBase::AMyGameModeBase()</t>
+  </si>
+  <si>
+    <t>: Super()</t>
+  </si>
+  <si>
+    <t>DefaultPawnClass = APawn::StaticClass();</t>
+  </si>
+  <si>
+    <t>AUE5_Test002GameMode::AUE5_Test002GameMode()</t>
+  </si>
+  <si>
+    <t>// set default pawn class to our Blueprinted character</t>
+  </si>
+  <si>
+    <t>static ConstructorHelpers::FClassFinder&lt;APawn&gt; PlayerPawnClassFinder(TEXT("/Game/FirstPerson/Blueprints/BP_FirstPersonCharacter"));</t>
+  </si>
+  <si>
+    <t>DefaultPawnClass = PlayerPawnClassFinder.Class;</t>
+  </si>
+  <si>
+    <t>选角的场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要玩家对象,也不需要响应输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏内场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用我们自己的蓝图类，一般会在蓝图里面设置好组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -699,10 +985,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -802,4 +1088,535 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A677F5D-DBF4-45E1-89B1-B4CB4AFD2F17}">
+  <dimension ref="A2:T97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E39" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D54" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D59" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D63" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D85" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>80</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>82</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D93" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C95" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D96" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_player.xlsx
+++ b/doc/ue_player.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58B7481-D7C0-49A3-B8B9-694E9A23E99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,147 +425,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GameMode的PostLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandleStartingNewPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>void AGameModeBase::HandleStartingNewPlayer_Implementation(APlayerController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>调度到蓝图的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>调度下面的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::RestartPlayer(AController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>AActor* StartSpot = FindPlayerStart(NewPlayer);</t>
+  </si>
+  <si>
+    <t>先找到一个玩家进入点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartPlayerAtPlayerStart(NewPlayer, StartSpot);</t>
+  </si>
+  <si>
+    <t>调用下面的e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::RestartPlayerAtPlayerStart(AController* NewPlayer, AActor* StartSpot)</t>
+  </si>
+  <si>
+    <t>APawn* NewPawn = SpawnDefaultPawnFor(NewPlayer, StartSpot);</t>
+  </si>
+  <si>
+    <t>if (IsValid(NewPawn))</t>
+  </si>
+  <si>
+    <t>NewPlayer-&gt;SetPawn(NewPawn);</t>
+  </si>
+  <si>
+    <t>创建和绑定，这个时候playercontroller和玩家的pawn就绑定在一起了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建玩家Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会根据设置的PawnClass，然后创建他，也就会到我们的class类了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">controller和pawn绑定 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我们Pawn类的构造里面就可以设置很多东西，一般这个是蓝图类做的，有自己很多控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如人物的Mesh，头顶面板，人物信息，武器，挂件，骑乘等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AUE5_Test002Character::SetupPlayerInputComponent(class UInputComponent* PlayerInputComponent)</t>
+  </si>
+  <si>
+    <t>接下来会调用输入事件绑定函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这个里面需要绑定玩家鼠标键盘等回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要讲：进入游戏后，对应玩家对象的创建流程，涉及创建和事件绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的蓝图类可以再每个场景自己的GameMode构造里面设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMyGameModeBase::AMyGameModeBase()</t>
+  </si>
+  <si>
+    <t>: Super()</t>
+  </si>
+  <si>
+    <t>DefaultPawnClass = APawn::StaticClass();</t>
+  </si>
+  <si>
+    <t>AUE5_Test002GameMode::AUE5_Test002GameMode()</t>
+  </si>
+  <si>
+    <t>// set default pawn class to our Blueprinted character</t>
+  </si>
+  <si>
+    <t>static ConstructorHelpers::FClassFinder&lt;APawn&gt; PlayerPawnClassFinder(TEXT("/Game/FirstPerson/Blueprints/BP_FirstPersonCharacter"));</t>
+  </si>
+  <si>
+    <t>DefaultPawnClass = PlayerPawnClassFinder.Class;</t>
+  </si>
+  <si>
+    <t>选角的场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要玩家对象,也不需要响应输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏内场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用我们自己的蓝图类，一般会在蓝图里面设置好组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void AGameModeBase::PostLogin(APlayerController* NewPlayer)</t>
-  </si>
-  <si>
-    <t>GameMode的PostLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HandleStartingNewPlayer(NewPlayer);</t>
-  </si>
-  <si>
-    <t>void AGameModeBase::HandleStartingNewPlayer_Implementation(APlayerController* NewPlayer)</t>
-  </si>
-  <si>
-    <t>调度到蓝图的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RestartPlayer(NewPlayer);</t>
-  </si>
-  <si>
-    <t>调度下面的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AGameModeBase::RestartPlayer(AController* NewPlayer)</t>
-  </si>
-  <si>
-    <t>AActor* StartSpot = FindPlayerStart(NewPlayer);</t>
-  </si>
-  <si>
-    <t>先找到一个玩家进入点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RestartPlayerAtPlayerStart(NewPlayer, StartSpot);</t>
-  </si>
-  <si>
-    <t>调用下面的e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AGameModeBase::RestartPlayerAtPlayerStart(AController* NewPlayer, AActor* StartSpot)</t>
-  </si>
-  <si>
-    <t>APawn* NewPawn = SpawnDefaultPawnFor(NewPlayer, StartSpot);</t>
-  </si>
-  <si>
-    <t>if (IsValid(NewPawn))</t>
-  </si>
-  <si>
-    <t>NewPlayer-&gt;SetPawn(NewPawn);</t>
-  </si>
-  <si>
-    <t>创建和绑定，这个时候playercontroller和玩家的pawn就绑定在一起了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建玩家Pawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部会根据设置的PawnClass，然后创建他，也就会到我们的class类了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">controller和pawn绑定 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我们Pawn类的构造里面就可以设置很多东西，一般这个是蓝图类做的，有自己很多控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如人物的Mesh，头顶面板，人物信息，武器，挂件，骑乘等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AUE5_Test002Character::SetupPlayerInputComponent(class UInputComponent* PlayerInputComponent)</t>
-  </si>
-  <si>
-    <t>接下来会调用输入事件绑定函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在这个里面需要绑定玩家鼠标键盘等回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要讲：进入游戏后，对应玩家对象的创建流程，涉及创建和事件绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家的蓝图类可以再每个场景自己的GameMode构造里面设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMyGameModeBase::AMyGameModeBase()</t>
-  </si>
-  <si>
-    <t>: Super()</t>
-  </si>
-  <si>
-    <t>DefaultPawnClass = APawn::StaticClass();</t>
-  </si>
-  <si>
-    <t>AUE5_Test002GameMode::AUE5_Test002GameMode()</t>
-  </si>
-  <si>
-    <t>// set default pawn class to our Blueprinted character</t>
-  </si>
-  <si>
-    <t>static ConstructorHelpers::FClassFinder&lt;APawn&gt; PlayerPawnClassFinder(TEXT("/Game/FirstPerson/Blueprints/BP_FirstPersonCharacter"));</t>
-  </si>
-  <si>
-    <t>DefaultPawnClass = PlayerPawnClassFinder.Class;</t>
-  </si>
-  <si>
-    <t>选角的场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要玩家对象,也不需要响应输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏内场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要用我们自己的蓝图类，一般会在蓝图里面设置好组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -985,7 +985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1091,11 +1091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A677F5D-DBF4-45E1-89B1-B4CB4AFD2F17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1105,28 +1105,28 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1139,10 +1139,10 @@
         <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1174,13 +1174,13 @@
         <v>27</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1188,10 +1188,10 @@
         <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>31</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -1465,17 +1465,17 @@
         <v>4</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
@@ -1483,22 +1483,22 @@
         <v>5</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D73" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
@@ -1506,32 +1506,32 @@
         <v>6</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.2">
@@ -1539,33 +1539,33 @@
         <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D85" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.2">
@@ -1575,10 +1575,10 @@
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.2">
@@ -1591,27 +1591,27 @@
         <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D93" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D96" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_player.xlsx
+++ b/doc/ue_player.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C155EEC-DBE3-43C8-8A36-C5E92E5329DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
   <si>
     <t>Pawn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,110 +464,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>APawn* NewPawn = SpawnDefaultPawnFor(NewPlayer, StartSpot);</t>
+  </si>
+  <si>
+    <t>if (IsValid(NewPawn))</t>
+  </si>
+  <si>
+    <t>NewPlayer-&gt;SetPawn(NewPawn);</t>
+  </si>
+  <si>
+    <t>创建和绑定，这个时候playercontroller和玩家的pawn就绑定在一起了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建玩家Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会根据设置的PawnClass，然后创建他，也就会到我们的class类了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">controller和pawn绑定 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我们Pawn类的构造里面就可以设置很多东西，一般这个是蓝图类做的，有自己很多控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如人物的Mesh，头顶面板，人物信息，武器，挂件，骑乘等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AUE5_Test002Character::SetupPlayerInputComponent(class UInputComponent* PlayerInputComponent)</t>
+  </si>
+  <si>
+    <t>接下来会调用输入事件绑定函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这个里面需要绑定玩家鼠标键盘等回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要讲：进入游戏后，对应玩家对象的创建流程，涉及创建和事件绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的蓝图类可以再每个场景自己的GameMode构造里面设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMyGameModeBase::AMyGameModeBase()</t>
+  </si>
+  <si>
+    <t>: Super()</t>
+  </si>
+  <si>
+    <t>DefaultPawnClass = APawn::StaticClass();</t>
+  </si>
+  <si>
+    <t>AUE5_Test002GameMode::AUE5_Test002GameMode()</t>
+  </si>
+  <si>
+    <t>// set default pawn class to our Blueprinted character</t>
+  </si>
+  <si>
+    <t>static ConstructorHelpers::FClassFinder&lt;APawn&gt; PlayerPawnClassFinder(TEXT("/Game/FirstPerson/Blueprints/BP_FirstPersonCharacter"));</t>
+  </si>
+  <si>
+    <t>DefaultPawnClass = PlayerPawnClassFinder.Class;</t>
+  </si>
+  <si>
+    <t>选角的场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要玩家对象,也不需要响应输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏内场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用我们自己的蓝图类，一般会在蓝图里面设置好组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::PostLogin(APlayerController* NewPlayer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void AGameModeBase::RestartPlayerAtPlayerStart(AController* NewPlayer, AActor* StartSpot)</t>
-  </si>
-  <si>
-    <t>APawn* NewPawn = SpawnDefaultPawnFor(NewPlayer, StartSpot);</t>
-  </si>
-  <si>
-    <t>if (IsValid(NewPawn))</t>
-  </si>
-  <si>
-    <t>NewPlayer-&gt;SetPawn(NewPawn);</t>
-  </si>
-  <si>
-    <t>创建和绑定，这个时候playercontroller和玩家的pawn就绑定在一起了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建玩家Pawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部会根据设置的PawnClass，然后创建他，也就会到我们的class类了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">controller和pawn绑定 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我们Pawn类的构造里面就可以设置很多东西，一般这个是蓝图类做的，有自己很多控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如人物的Mesh，头顶面板，人物信息，武器，挂件，骑乘等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AUE5_Test002Character::SetupPlayerInputComponent(class UInputComponent* PlayerInputComponent)</t>
-  </si>
-  <si>
-    <t>接下来会调用输入事件绑定函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在这个里面需要绑定玩家鼠标键盘等回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要讲：进入游戏后，对应玩家对象的创建流程，涉及创建和事件绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家的蓝图类可以再每个场景自己的GameMode构造里面设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMyGameModeBase::AMyGameModeBase()</t>
-  </si>
-  <si>
-    <t>: Super()</t>
-  </si>
-  <si>
-    <t>DefaultPawnClass = APawn::StaticClass();</t>
-  </si>
-  <si>
-    <t>AUE5_Test002GameMode::AUE5_Test002GameMode()</t>
-  </si>
-  <si>
-    <t>// set default pawn class to our Blueprinted character</t>
-  </si>
-  <si>
-    <t>static ConstructorHelpers::FClassFinder&lt;APawn&gt; PlayerPawnClassFinder(TEXT("/Game/FirstPerson/Blueprints/BP_FirstPersonCharacter"));</t>
-  </si>
-  <si>
-    <t>DefaultPawnClass = PlayerPawnClassFinder.Class;</t>
-  </si>
-  <si>
-    <t>选角的场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要玩家对象,也不需要响应输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏内场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要用我们自己的蓝图类，一般会在蓝图里面设置好组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AGameModeBase::PostLogin(APlayerController* NewPlayer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个地方比较狗血：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果GameMode的DefaultPawnClass是None，则不创建，等待绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则创建默认的，我们其实并不想要默认的（否则自己创建）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -917,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -985,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1091,11 +1105,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="R103" sqref="R103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1105,28 +1119,28 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="O4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1139,10 +1153,10 @@
         <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1174,13 +1188,13 @@
         <v>27</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1188,10 +1202,10 @@
         <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1207,7 +1221,7 @@
         <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -1215,7 +1229,7 @@
         <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -1223,7 +1237,7 @@
         <v>31</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -1470,7 +1484,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
@@ -1506,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
@@ -1529,89 +1543,148 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="D85" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>78</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M86" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D85" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
         <v>79</v>
       </c>
-      <c r="L86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D87" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1">
+        <v>1</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1">
+        <v>2</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="D93" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D93" s="1" t="s">
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C95" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="D96" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C95" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D96" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_player.xlsx
+++ b/doc/ue_player.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C155EEC-DBE3-43C8-8A36-C5E92E5329DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="player" sheetId="2" r:id="rId2"/>
     <sheet name="整体游戏玩家构造流程" sheetId="3" r:id="rId3"/>
+    <sheet name="Pawn" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="139">
   <si>
     <t>Pawn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,11 +576,108 @@
     <t>否则创建默认的，我们其实并不想要默认的（否则自己创建）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Pawn的一些流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APawn::PreInitializeComponents()</t>
+  </si>
+  <si>
+    <t>Super::PreInitializeComponents();</t>
+  </si>
+  <si>
+    <t>if (GetInstigator() == nullptr)</t>
+  </si>
+  <si>
+    <t>SetInstigator(this);</t>
+  </si>
+  <si>
+    <t>if (AutoPossessPlayer != EAutoReceiveInput::Disabled &amp;&amp; GetNetMode() != NM_Client )</t>
+  </si>
+  <si>
+    <t>const int32 PlayerIndex = int32(AutoPossessPlayer.GetValue()) - 1;</t>
+  </si>
+  <si>
+    <t>APlayerController* PC = UGameplayStatics::GetPlayerController(this, PlayerIndex);</t>
+  </si>
+  <si>
+    <t>if (PC)</t>
+  </si>
+  <si>
+    <t>PC-&gt;Possess(this);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>GetWorld()-&gt;PersistentLevel-&gt;RegisterActorForAutoReceiveInput(this, PlayerIndex);</t>
+  </si>
+  <si>
+    <t>UpdateNavigationRelevance();</t>
+  </si>
+  <si>
+    <t>销毁时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APawn::Destroyed()</t>
+  </si>
+  <si>
+    <t>DetachFromControllerPendingDestroy();</t>
+  </si>
+  <si>
+    <t>Super::Destroyed();</t>
+  </si>
+  <si>
+    <t>注意这个地方，如果设置了AutoProcessPlayer，就会和LoalPlayer-PlayerController挂钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和Controller解除关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AController::Possess(APawn* InPawn)</t>
+  </si>
+  <si>
+    <t>OnPossess(InPawn);</t>
+  </si>
+  <si>
+    <t>APawn* NewPawn = GetPawn();</t>
+  </si>
+  <si>
+    <t>if (NewPawn != CurrentPawn || bNotificationRequired)</t>
+  </si>
+  <si>
+    <t>ReceivePossess(NewPawn);</t>
+  </si>
+  <si>
+    <t>OnNewPawn.Broadcast(NewPawn);</t>
+  </si>
+  <si>
+    <t>处理函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InPawn-&gt;PossessedBy(this);</t>
+  </si>
+  <si>
+    <t>SetPawn(InPawn);</t>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -931,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -999,7 +1096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1105,10 +1202,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="R103" sqref="R103"/>
     </sheetView>
   </sheetViews>
@@ -1692,4 +1789,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:W40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>130</v>
+      </c>
+      <c r="W25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="W26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>131</v>
+      </c>
+      <c r="W27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="R31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_player.xlsx
+++ b/doc/ue_player.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
   <si>
     <t>Pawn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,80 +597,93 @@
     <t>SetInstigator(this);</t>
   </si>
   <si>
+    <t>const int32 PlayerIndex = int32(AutoPossessPlayer.GetValue()) - 1;</t>
+  </si>
+  <si>
+    <t>APlayerController* PC = UGameplayStatics::GetPlayerController(this, PlayerIndex);</t>
+  </si>
+  <si>
+    <t>if (PC)</t>
+  </si>
+  <si>
+    <t>PC-&gt;Possess(this);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>GetWorld()-&gt;PersistentLevel-&gt;RegisterActorForAutoReceiveInput(this, PlayerIndex);</t>
+  </si>
+  <si>
+    <t>UpdateNavigationRelevance();</t>
+  </si>
+  <si>
+    <t>销毁时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APawn::Destroyed()</t>
+  </si>
+  <si>
+    <t>DetachFromControllerPendingDestroy();</t>
+  </si>
+  <si>
+    <t>Super::Destroyed();</t>
+  </si>
+  <si>
+    <t>注意这个地方，如果设置了AutoProcessPlayer，就会和LoalPlayer-PlayerController挂钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和Controller解除关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AController::Possess(APawn* InPawn)</t>
+  </si>
+  <si>
+    <t>OnPossess(InPawn);</t>
+  </si>
+  <si>
+    <t>APawn* NewPawn = GetPawn();</t>
+  </si>
+  <si>
+    <t>if (NewPawn != CurrentPawn || bNotificationRequired)</t>
+  </si>
+  <si>
+    <t>ReceivePossess(NewPawn);</t>
+  </si>
+  <si>
+    <t>OnNewPawn.Broadcast(NewPawn);</t>
+  </si>
+  <si>
+    <t>处理函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InPawn-&gt;PossessedBy(this);</t>
+  </si>
+  <si>
+    <t>SetPawn(InPawn);</t>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>if (AutoPossessPlayer != EAutoReceiveInput::Disabled &amp;&amp; GetNetMode() != NM_Client )</t>
-  </si>
-  <si>
-    <t>const int32 PlayerIndex = int32(AutoPossessPlayer.GetValue()) - 1;</t>
-  </si>
-  <si>
-    <t>APlayerController* PC = UGameplayStatics::GetPlayerController(this, PlayerIndex);</t>
-  </si>
-  <si>
-    <t>if (PC)</t>
-  </si>
-  <si>
-    <t>PC-&gt;Possess(this);</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>GetWorld()-&gt;PersistentLevel-&gt;RegisterActorForAutoReceiveInput(this, PlayerIndex);</t>
-  </si>
-  <si>
-    <t>UpdateNavigationRelevance();</t>
-  </si>
-  <si>
-    <t>销毁时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void APawn::Destroyed()</t>
-  </si>
-  <si>
-    <t>DetachFromControllerPendingDestroy();</t>
-  </si>
-  <si>
-    <t>Super::Destroyed();</t>
-  </si>
-  <si>
-    <t>注意这个地方，如果设置了AutoProcessPlayer，就会和LoalPlayer-PlayerController挂钩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和Controller解除关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AController::Possess(APawn* InPawn)</t>
-  </si>
-  <si>
-    <t>OnPossess(InPawn);</t>
-  </si>
-  <si>
-    <t>APawn* NewPawn = GetPawn();</t>
-  </si>
-  <si>
-    <t>if (NewPawn != CurrentPawn || bNotificationRequired)</t>
-  </si>
-  <si>
-    <t>ReceivePossess(NewPawn);</t>
-  </si>
-  <si>
-    <t>OnNewPawn.Broadcast(NewPawn);</t>
-  </si>
-  <si>
-    <t>处理函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InPawn-&gt;PossessedBy(this);</t>
-  </si>
-  <si>
-    <t>SetPawn(InPawn);</t>
-  </si>
-  <si>
-    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在Game Mode里面不要设置Pawn的Class，而是由程序动态生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则系统默认会生成一个对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1205,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W97"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="R103" sqref="R103"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1795,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1808,6 +1821,17 @@
       <c r="B3" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -1851,10 +1875,10 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.2">
@@ -1864,17 +1888,17 @@
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.2">
@@ -1882,15 +1906,15 @@
         <v>30</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.2">
@@ -1900,13 +1924,13 @@
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.2">
@@ -1914,18 +1938,18 @@
         <v>30</v>
       </c>
       <c r="W26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
@@ -1933,7 +1957,7 @@
         <v>35</v>
       </c>
       <c r="Q28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.2">
@@ -1946,15 +1970,15 @@
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="R30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.2">
@@ -1967,12 +1991,12 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
@@ -1982,15 +2006,15 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">

--- a/doc/ue_player.xlsx
+++ b/doc/ue_player.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0104A5E-2A82-4A47-8F85-00AA668341F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,112 +586,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Super::PreInitializeComponents();</t>
+  </si>
+  <si>
+    <t>if (GetInstigator() == nullptr)</t>
+  </si>
+  <si>
+    <t>SetInstigator(this);</t>
+  </si>
+  <si>
+    <t>const int32 PlayerIndex = int32(AutoPossessPlayer.GetValue()) - 1;</t>
+  </si>
+  <si>
+    <t>APlayerController* PC = UGameplayStatics::GetPlayerController(this, PlayerIndex);</t>
+  </si>
+  <si>
+    <t>if (PC)</t>
+  </si>
+  <si>
+    <t>PC-&gt;Possess(this);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>GetWorld()-&gt;PersistentLevel-&gt;RegisterActorForAutoReceiveInput(this, PlayerIndex);</t>
+  </si>
+  <si>
+    <t>UpdateNavigationRelevance();</t>
+  </si>
+  <si>
+    <t>销毁时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APawn::Destroyed()</t>
+  </si>
+  <si>
+    <t>DetachFromControllerPendingDestroy();</t>
+  </si>
+  <si>
+    <t>Super::Destroyed();</t>
+  </si>
+  <si>
+    <t>注意这个地方，如果设置了AutoProcessPlayer，就会和LoalPlayer-PlayerController挂钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和Controller解除关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AController::Possess(APawn* InPawn)</t>
+  </si>
+  <si>
+    <t>OnPossess(InPawn);</t>
+  </si>
+  <si>
+    <t>APawn* NewPawn = GetPawn();</t>
+  </si>
+  <si>
+    <t>if (NewPawn != CurrentPawn || bNotificationRequired)</t>
+  </si>
+  <si>
+    <t>ReceivePossess(NewPawn);</t>
+  </si>
+  <si>
+    <t>OnNewPawn.Broadcast(NewPawn);</t>
+  </si>
+  <si>
+    <t>处理函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InPawn-&gt;PossessedBy(this);</t>
+  </si>
+  <si>
+    <t>SetPawn(InPawn);</t>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (AutoPossessPlayer != EAutoReceiveInput::Disabled &amp;&amp; GetNetMode() != NM_Client )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在Game Mode里面不要设置Pawn的Class，而是由程序动态生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则系统默认会生成一个对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void APawn::PreInitializeComponents()</t>
-  </si>
-  <si>
-    <t>Super::PreInitializeComponents();</t>
-  </si>
-  <si>
-    <t>if (GetInstigator() == nullptr)</t>
-  </si>
-  <si>
-    <t>SetInstigator(this);</t>
-  </si>
-  <si>
-    <t>const int32 PlayerIndex = int32(AutoPossessPlayer.GetValue()) - 1;</t>
-  </si>
-  <si>
-    <t>APlayerController* PC = UGameplayStatics::GetPlayerController(this, PlayerIndex);</t>
-  </si>
-  <si>
-    <t>if (PC)</t>
-  </si>
-  <si>
-    <t>PC-&gt;Possess(this);</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>GetWorld()-&gt;PersistentLevel-&gt;RegisterActorForAutoReceiveInput(this, PlayerIndex);</t>
-  </si>
-  <si>
-    <t>UpdateNavigationRelevance();</t>
-  </si>
-  <si>
-    <t>销毁时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void APawn::Destroyed()</t>
-  </si>
-  <si>
-    <t>DetachFromControllerPendingDestroy();</t>
-  </si>
-  <si>
-    <t>Super::Destroyed();</t>
-  </si>
-  <si>
-    <t>注意这个地方，如果设置了AutoProcessPlayer，就会和LoalPlayer-PlayerController挂钩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和Controller解除关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AController::Possess(APawn* InPawn)</t>
-  </si>
-  <si>
-    <t>OnPossess(InPawn);</t>
-  </si>
-  <si>
-    <t>APawn* NewPawn = GetPawn();</t>
-  </si>
-  <si>
-    <t>if (NewPawn != CurrentPawn || bNotificationRequired)</t>
-  </si>
-  <si>
-    <t>ReceivePossess(NewPawn);</t>
-  </si>
-  <si>
-    <t>OnNewPawn.Broadcast(NewPawn);</t>
-  </si>
-  <si>
-    <t>处理函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InPawn-&gt;PossessedBy(this);</t>
-  </si>
-  <si>
-    <t>SetPawn(InPawn);</t>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (AutoPossessPlayer != EAutoReceiveInput::Disabled &amp;&amp; GetNetMode() != NM_Client )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在Game Mode里面不要设置Pawn的Class，而是由程序动态生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则系统默认会生成一个对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1041,7 +1043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1109,7 +1111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A8:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1215,7 +1217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:W97"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -1805,11 +1807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1822,15 +1824,15 @@
         <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
@@ -1840,7 +1842,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
@@ -1850,12 +1852,12 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -1865,7 +1867,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
@@ -1875,10 +1877,10 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.2">
@@ -1888,17 +1890,17 @@
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.2">
@@ -1906,15 +1908,15 @@
         <v>30</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.2">
@@ -1924,13 +1926,13 @@
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.2">
@@ -1938,18 +1940,18 @@
         <v>30</v>
       </c>
       <c r="W26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
@@ -1957,7 +1959,7 @@
         <v>35</v>
       </c>
       <c r="Q28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.2">
@@ -1970,15 +1972,15 @@
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="R30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.2">
@@ -1991,12 +1993,12 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
@@ -2006,15 +2008,15 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">

--- a/doc/ue_player.xlsx
+++ b/doc/ue_player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0104A5E-2A82-4A47-8F85-00AA668341F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95864C46-C7B0-4CB7-B4DA-A345BBFB822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="143">
   <si>
     <t>Pawn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,6 +686,10 @@
   </si>
   <si>
     <t>void APawn::PreInitializeComponents()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！是在PostLogin里面处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1220,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:W97"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1581,30 +1585,33 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D65" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="R67" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>5</v>
       </c>
@@ -1612,22 +1619,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D73" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>6</v>
       </c>
@@ -1635,22 +1642,22 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>77</v>
       </c>
@@ -1810,7 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_player.xlsx
+++ b/doc/ue_player.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95864C46-C7B0-4CB7-B4DA-A345BBFB822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F11D613-BDA6-4DAB-AD54-3501884830ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="player" sheetId="2" r:id="rId2"/>
     <sheet name="整体游戏玩家构造流程" sheetId="3" r:id="rId3"/>
     <sheet name="Pawn" sheetId="4" r:id="rId4"/>
+    <sheet name="ClientRestart&amp;OnProcess&amp;Acknowl" sheetId="5" r:id="rId5"/>
+    <sheet name="DS " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="191">
   <si>
     <t>Pawn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,12 +694,175 @@
     <t>！！！是在PostLogin里面处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>收到客户端登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case NMT_Join:</t>
+  </si>
+  <si>
+    <t>Connection-&gt;PlayerController = SpawnPlayActor( Connection, ROLE_AutonomousProxy, InURL, Connection-&gt;PlayerId, ErrorMsg );</t>
+  </si>
+  <si>
+    <t>创建链接的PlayerController；内部调用Gamemode的Login创建返回的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部创建返回PlayerContrller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;NetPlayerIndex = InNetPlayerIndex;</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetRole(ROLE_Authority);</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetReplicates(RemoteRole != ROLE_None);</t>
+  </si>
+  <si>
+    <t>if (RemoteRole == ROLE_AutonomousProxy)</t>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetAutonomousProxy(true);</t>
+  </si>
+  <si>
+    <t>将PlayerController和底层的IpConnect挂钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewPlayer = 0x000001ca9d1a6040 (Name=IpConnection_5)</t>
+  </si>
+  <si>
+    <t>调用Post Login，设置数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::PostLogin(APlayerController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>内部创建对应的Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// If players should start as spectators, leave them in the spectator state</t>
+  </si>
+  <si>
+    <t>if (!bStartPlayersAsSpectators &amp;&amp; !MustSpectate(NewPlayer) &amp;&amp; PlayerCanRestart(NewPlayer))</t>
+  </si>
+  <si>
+    <t>// Otherwise spawn their pawn immediately</t>
+  </si>
+  <si>
+    <t>找到一个玩家的位置？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::RestartPlayerAtPlayerStart(AController* NewPlayer, AActor* StartSpot)</t>
+  </si>
+  <si>
+    <t>if (NewPlayer-&gt;GetPawn() != nullptr)</t>
+  </si>
+  <si>
+    <t>// If we have an existing pawn, just use it's rotation</t>
+  </si>
+  <si>
+    <t>SpawnRotation = NewPlayer-&gt;GetPawn()-&gt;GetActorRotation();</t>
+  </si>
+  <si>
+    <t>else if (GetDefaultPawnClassForController(NewPlayer) != nullptr)</t>
+  </si>
+  <si>
+    <t>// Try to create a pawn to use of the default class for this player</t>
+  </si>
+  <si>
+    <t>NewPlayer-&gt;SetPawn(SpawnDefaultPawnFor(NewPlayer, StartSpot));</t>
+  </si>
+  <si>
+    <t>if (NewPlayer-&gt;GetPawn() == nullptr)</t>
+  </si>
+  <si>
+    <t>NewPlayer-&gt;FailedToSpawnPawn();</t>
+  </si>
+  <si>
+    <t>// Tell the start spot it was used</t>
+  </si>
+  <si>
+    <t>InitStartSpot(StartSpot, NewPlayer);</t>
+  </si>
+  <si>
+    <t>FinishRestartPlayer(NewPlayer, SpawnRotation);</t>
+  </si>
+  <si>
+    <t>有Pawn就用，没有就创建，所以，这个地方短线重连可以用之前的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::FinishRestartPlayer(AController* NewPlayer, const FRotator&amp; StartRotation)</t>
+  </si>
+  <si>
+    <t>NewPlayer-&gt;Possess(NewPlayer-&gt;GetPawn());</t>
+  </si>
+  <si>
+    <t>相互挂钩，设置属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于Controllerler来说：绑定Pawn，然后通知客户端ReStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC通知客户端ClientRestart(GetPawn());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于Pawn来说，获取玩家的PlayeState，准备设置数据：初始化GAS，初始化技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APlayerController::ClientRestart_Implementation(APawn* NewPawn)</t>
+  </si>
+  <si>
+    <t>DS服务器RPC客户端的Restart后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcknowledgePossession(GetPawn());</t>
+  </si>
+  <si>
+    <t>RPC调用服务器的ServerAcknowledgePossession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcknowledgedPawn</t>
+  </si>
+  <si>
+    <t>！！！干啥用的？？？仅仅时判断两个PAWN是否一致？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端收到同步PlayState的函数OnRep_PlayerState后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定自己的GAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定INPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建HUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,6 +905,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -761,13 +934,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1224,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
@@ -2036,4 +2210,435 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8023D9-DDC7-4AE7-89C3-2F2E1F9A5DEB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C757BEA3-6690-4E39-9A8D-9A30A16EFA95}">
+  <dimension ref="A2:T83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="T17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>179</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>183</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>2</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>